--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,106 +40,106 @@
     <t>name</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>sorry</t>
   </si>
   <si>
     <t>dumb</t>
   </si>
   <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>dangerous</t>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>hate</t>
   </si>
   <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>guilty</t>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>frightening</t>
+    <t>shocked</t>
   </si>
   <si>
     <t>shocking</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>false</t>
   </si>
   <si>
     <t>seriously</t>
@@ -148,15 +148,12 @@
     <t>bad</t>
   </si>
   <si>
+    <t>black</t>
+  </si>
+  <si>
     <t>serious</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -178,40 +175,43 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>essential</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>powerful</t>
+    <t>top</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>first</t>
+    <t>wow</t>
   </si>
   <si>
     <t>okay</t>
@@ -220,82 +220,79 @@
     <t>thank</t>
   </si>
   <si>
-    <t>wow</t>
+    <t>worth</t>
   </si>
   <si>
     <t>live</t>
   </si>
   <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
     <t>many</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
+    <t>real</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>world</t>
   </si>
   <si>
     <t>twitter</t>
   </si>
   <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
     <t>watch</t>
   </si>
   <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>watching</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>positive</t>
@@ -664,10 +661,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -728,10 +725,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -746,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -778,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -796,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -825,13 +822,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -843,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <v>0.92</v>
@@ -875,13 +872,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -893,10 +890,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6">
         <v>0.9090909090909091</v>
@@ -925,13 +922,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -943,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K7">
         <v>0.9</v>
@@ -975,13 +972,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9038461538461539</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -993,19 +990,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8">
-        <v>0.8245614035087719</v>
+        <v>0.8</v>
       </c>
       <c r="L8">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1017,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1025,13 +1022,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8888888888888888</v>
+        <v>0.9</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1046,16 +1043,16 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9">
-        <v>0.7</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1067,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1096,16 +1093,16 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K10">
-        <v>0.6933333333333334</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L10">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M10">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1117,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1125,13 +1122,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1146,16 +1143,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K11">
-        <v>0.6896551724137931</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1167,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1175,38 +1172,38 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.8125</v>
       </c>
       <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L12">
         <v>8</v>
       </c>
-      <c r="D12">
+      <c r="M12">
         <v>8</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12">
-        <v>0.6842105263157895</v>
-      </c>
-      <c r="L12">
-        <v>13</v>
-      </c>
-      <c r="M12">
-        <v>13</v>
-      </c>
       <c r="N12">
         <v>1</v>
       </c>
@@ -1217,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1225,13 +1222,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1243,19 +1240,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K13">
-        <v>0.6153846153846154</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1267,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1275,13 +1272,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1296,16 +1293,16 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K14">
-        <v>0.6111111111111112</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L14">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M14">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1317,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1325,13 +1322,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1343,19 +1340,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L15">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1367,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1375,13 +1372,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1393,19 +1390,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K16">
-        <v>0.5384615384615384</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L16">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1417,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1425,13 +1422,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7058823529411765</v>
+        <v>0.75</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1443,10 +1440,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K17">
         <v>0.5185185185185185</v>
@@ -1475,7 +1472,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6923076923076923</v>
+        <v>0.75</v>
       </c>
       <c r="C18">
         <v>9</v>
@@ -1493,19 +1490,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K18">
-        <v>0.5</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1517,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1525,38 +1522,38 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6666666666666666</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="L19">
         <v>6</v>
       </c>
-      <c r="D19">
+      <c r="M19">
         <v>6</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="L19">
-        <v>15</v>
-      </c>
-      <c r="M19">
-        <v>15</v>
-      </c>
       <c r="N19">
         <v>1</v>
       </c>
@@ -1567,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1575,13 +1572,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6571428571428571</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1593,19 +1590,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K20">
-        <v>0.4285714285714285</v>
+        <v>0.4375</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="M20">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1617,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1625,13 +1622,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1643,13 +1640,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K21">
-        <v>0.375</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L21">
         <v>6</v>
@@ -1667,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1675,13 +1672,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.65</v>
+        <v>0.675</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1693,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K22">
         <v>0.375</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1717,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1725,13 +1722,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1746,16 +1743,16 @@
         <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K23">
-        <v>0.3043478260869565</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L23">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M23">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1767,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1775,13 +1772,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1793,19 +1790,19 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="L24">
         <v>6</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K24">
-        <v>0.2926829268292683</v>
-      </c>
-      <c r="L24">
-        <v>12</v>
-      </c>
       <c r="M24">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1817,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1846,16 +1843,16 @@
         <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K25">
-        <v>0.2586520947176685</v>
+        <v>0.2577413479052824</v>
       </c>
       <c r="L25">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M25">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1867,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1875,13 +1872,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6014492753623188</v>
+        <v>0.6</v>
       </c>
       <c r="C26">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="D26">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1893,19 +1890,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K26">
-        <v>0.2372881355932203</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1917,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1946,10 +1943,10 @@
         <v>7</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K27">
-        <v>0.2307692307692308</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L27">
         <v>6</v>
@@ -1967,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1975,37 +1972,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5833333333333334</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>7</v>
       </c>
-      <c r="D28">
-        <v>7</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>5</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K28">
-        <v>0.2222222222222222</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L28">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M28">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2017,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2025,13 +2022,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5833333333333334</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2043,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K29">
-        <v>0.1851851851851852</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2067,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2075,13 +2072,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5833333333333334</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2093,19 +2090,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K30">
-        <v>0.180327868852459</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="L30">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M30">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2117,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2125,13 +2122,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5714285714285714</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2143,19 +2140,19 @@
         <v>0</v>
       </c>
       <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K31">
+        <v>0.1846153846153846</v>
+      </c>
+      <c r="L31">
         <v>12</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K31">
-        <v>0.1789473684210526</v>
-      </c>
-      <c r="L31">
-        <v>17</v>
-      </c>
       <c r="M31">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2167,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2175,13 +2172,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5652173913043478</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2193,19 +2190,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K32">
-        <v>0.1529411764705882</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2217,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2225,13 +2222,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5106382978723404</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2243,31 +2240,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K33">
+        <v>0.1684210526315789</v>
+      </c>
+      <c r="L33">
+        <v>16</v>
+      </c>
+      <c r="M33">
+        <v>16</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>79</v>
-      </c>
-      <c r="K33">
-        <v>0.1506849315068493</v>
-      </c>
-      <c r="L33">
-        <v>11</v>
-      </c>
-      <c r="M33">
-        <v>11</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2275,13 +2272,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2296,16 +2293,16 @@
         <v>7</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K34">
-        <v>0.1304347826086956</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2317,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2325,13 +2322,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2343,19 +2340,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K35">
-        <v>0.1296296296296296</v>
+        <v>0.1647058823529412</v>
       </c>
       <c r="L35">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2367,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2375,13 +2372,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2393,19 +2390,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K36">
-        <v>0.1267605633802817</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="L36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2417,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2425,13 +2422,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3928571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C37">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2443,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K37">
-        <v>0.1230769230769231</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="L37">
         <v>8</v>
@@ -2467,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2496,10 +2493,10 @@
         <v>24</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K38">
-        <v>0.1153846153846154</v>
+        <v>0.08955223880597014</v>
       </c>
       <c r="L38">
         <v>6</v>
@@ -2517,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2525,13 +2522,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3809523809523809</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2543,19 +2540,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K39">
-        <v>0.0583941605839416</v>
+        <v>0.072992700729927</v>
       </c>
       <c r="L39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2567,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2575,13 +2572,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.375</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C40">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2596,16 +2593,16 @@
         <v>15</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K40">
-        <v>0.0537037037037037</v>
+        <v>0.06325301204819277</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M40">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2617,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>511</v>
+        <v>622</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2625,13 +2622,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3214285714285715</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="C41">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D41">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2643,19 +2640,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K41">
-        <v>0.05271084337349398</v>
+        <v>0.05653710247349823</v>
       </c>
       <c r="L41">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M41">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2667,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>629</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2675,87 +2672,63 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1794871794871795</v>
+        <v>0.05743243243243244</v>
       </c>
       <c r="C42">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D42">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>64</v>
+        <v>279</v>
       </c>
       <c r="J42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K42">
+        <v>0.04629629629629629</v>
+      </c>
+      <c r="L42">
+        <v>25</v>
+      </c>
+      <c r="M42">
+        <v>25</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K42">
-        <v>0.04593639575971731</v>
-      </c>
-      <c r="L42">
-        <v>13</v>
-      </c>
-      <c r="M42">
-        <v>13</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43">
-        <v>0.04391891891891892</v>
-      </c>
-      <c r="C43">
-        <v>13</v>
-      </c>
-      <c r="D43">
-        <v>16</v>
-      </c>
-      <c r="E43">
-        <v>0.19</v>
-      </c>
-      <c r="F43">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>283</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="K43">
-        <v>0.03409090909090909</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M43">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2767,21 +2740,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K44">
-        <v>0.03225806451612903</v>
+        <v>0.03329065300896287</v>
       </c>
       <c r="L44">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M44">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2793,21 +2766,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>330</v>
+        <v>755</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K45">
-        <v>0.03174603174603174</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="L45">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M45">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2819,21 +2792,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46">
-        <v>0.029449423815621</v>
+        <v>0.02649769585253456</v>
       </c>
       <c r="L46">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M46">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2845,21 +2818,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>758</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K47">
-        <v>0.02649769585253456</v>
+        <v>0.02346041055718475</v>
       </c>
       <c r="L47">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="M47">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2871,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>1690</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
